--- a/data-raw/qry_Knights_Release_EDI.xlsx
+++ b/data-raw/qry_Knights_Release_EDI.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="qry_Knights_Release_EDI"/>
+    <sheet sheetId="1" r:id="rId1" name="Release___EDi_query"/>
   </sheets>
   <definedNames>
-    <definedName name="qry_Knights_Release_EDI">'qry_Knights_Release_EDI'!$A$1:$P$90</definedName>
+    <definedName name="Release___EDi_query">'Release___EDi_query'!$A$1:$P$92</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -4247,10 +4247,10 @@
         <v>9</v>
       </c>
       <c r="B62" s="0">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C62" s="1">
-        <v>43398.4036689815</v>
+        <v>44936.4380787037</v>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
@@ -4259,22 +4259,22 @@
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Late fall</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>Smolt</t>
+          <t>Juvenile</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
         <is>
-          <t>Hatchery</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Knights Landing RST</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="K62" s="0">
-        <v>520</v>
+        <v>721</v>
       </c>
       <c r="L62" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M62" s="0" t="inlineStr">
         <is>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="O62" s="0" t="inlineStr">
         <is>
-          <t>Nose</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="P62" s="0" t="inlineStr">
@@ -4314,10 +4314,10 @@
         <v>9</v>
       </c>
       <c r="B63" s="0">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="C63" s="1">
-        <v>43398.4133912037</v>
+        <v>45029.4068287037</v>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
@@ -4326,22 +4326,22 @@
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Late fall</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>Smolt</t>
+          <t>Juvenile</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Hatchery</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Knights Landing RST</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
@@ -4350,24 +4350,24 @@
         </is>
       </c>
       <c r="K63" s="0">
-        <v>585</v>
+        <v>1217</v>
       </c>
       <c r="L63" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M63" s="0" t="inlineStr">
         <is>
-          <t>Fin clip</t>
+          <t>Pigment / dye</t>
         </is>
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="O63" s="0" t="inlineStr">
         <is>
-          <t>Pelvic fin, left</t>
+          <t>Whole body</t>
         </is>
       </c>
       <c r="P63" s="0" t="inlineStr">
@@ -4381,10 +4381,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="0">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C64" s="1">
-        <v>43412.4376967593</v>
+        <v>43398.4036689815</v>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="K64" s="0">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="L64" s="0">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="M64" s="0" t="inlineStr">
         <is>
-          <t>Elastomer</t>
+          <t>Pigment / dye</t>
         </is>
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O64" s="0" t="inlineStr">
@@ -4448,10 +4448,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="0">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C65" s="1">
-        <v>43538.4147800926</v>
+        <v>43398.4133912037</v>
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Late fall</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>Juvenile</t>
+          <t>Smolt</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="K65" s="0">
-        <v>1114</v>
+        <v>585</v>
       </c>
       <c r="L65" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M65" s="0" t="inlineStr">
         <is>
-          <t>Elastomer</t>
+          <t>Fin clip</t>
         </is>
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Not applicable (n/a)</t>
         </is>
       </c>
       <c r="O65" s="0" t="inlineStr">
         <is>
-          <t>Nose</t>
+          <t>Pelvic fin, left</t>
         </is>
       </c>
       <c r="P65" s="0" t="inlineStr">
@@ -4515,10 +4515,10 @@
         <v>9</v>
       </c>
       <c r="B66" s="0">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C66" s="1">
-        <v>43552.3856134259</v>
+        <v>43412.4376967593</v>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Late fall</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>Juvenile</t>
+          <t>Smolt</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="K66" s="0">
-        <v>910</v>
+        <v>642</v>
       </c>
       <c r="L66" s="0">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M66" s="0" t="inlineStr">
         <is>
@@ -4582,10 +4582,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="0">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C67" s="1">
-        <v>43566.4689467593</v>
+        <v>43538.4147800926</v>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
@@ -4618,10 +4618,10 @@
         </is>
       </c>
       <c r="K67" s="0">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="L67" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M67" s="0" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O67" s="0" t="inlineStr">
@@ -4649,10 +4649,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="0">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C68" s="1">
-        <v>44631.4066782407</v>
+        <v>43552.3856134259</v>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
@@ -4664,6 +4664,11 @@
           <t>Fall</t>
         </is>
       </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
+        </is>
+      </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
           <t>Hatchery</t>
@@ -4680,10 +4685,10 @@
         </is>
       </c>
       <c r="K68" s="0">
-        <v>500</v>
+        <v>910</v>
       </c>
       <c r="L68" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M68" s="0" t="inlineStr">
         <is>
@@ -4711,39 +4716,65 @@
         <v>9</v>
       </c>
       <c r="B69" s="0">
-        <v>255</v>
+        <v>593</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43566.4689467593</v>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>Not applicable (n/a)</t>
+          <t>Chinook salmon</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>Not recorded</t>
+          <t>Fall</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>Juvenile</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>Not recorded</t>
+          <t>Hatchery</t>
         </is>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
-          <t>Not yet assigned</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
-          <t>Not applicable</t>
-        </is>
+          <t>Knights Landing release site</t>
+        </is>
+      </c>
+      <c r="K69" s="0">
+        <v>1121</v>
       </c>
       <c r="L69" s="0">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="M69" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="N69" s="0" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="O69" s="0" t="inlineStr">
+        <is>
+          <t>Nose</t>
+        </is>
       </c>
       <c r="P69" s="0" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -4752,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="0">
-        <v>258</v>
+        <v>603</v>
       </c>
       <c r="C70" s="1">
-        <v>42087.340474537</v>
+        <v>44631.4066782407</v>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
@@ -4774,7 +4805,7 @@
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>Not yet assigned</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="I70" s="0" t="inlineStr">
@@ -4783,7 +4814,7 @@
         </is>
       </c>
       <c r="K70" s="0">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="L70" s="0">
         <v>7</v>
@@ -4814,24 +4845,21 @@
         <v>9</v>
       </c>
       <c r="B71" s="0">
-        <v>259</v>
-      </c>
-      <c r="C71" s="1">
-        <v>42094.5418634259</v>
+        <v>255</v>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>Chinook salmon</t>
+          <t>Not applicable (n/a)</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Not recorded</t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>Hatchery</t>
+          <t>Not recorded</t>
         </is>
       </c>
       <c r="H71" s="0" t="inlineStr">
@@ -4841,33 +4869,15 @@
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>Knights Landing release site</t>
-        </is>
-      </c>
-      <c r="K71" s="0">
-        <v>513</v>
+          <t>Not applicable</t>
+        </is>
       </c>
       <c r="L71" s="0">
-        <v>10</v>
-      </c>
-      <c r="M71" s="0" t="inlineStr">
-        <is>
-          <t>Elastomer</t>
-        </is>
-      </c>
-      <c r="N71" s="0" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="O71" s="0" t="inlineStr">
-        <is>
-          <t>Nose</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="P71" s="0" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4876,10 +4886,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="0">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C72" s="1">
-        <v>42410.4307523148</v>
+        <v>42087.340474537</v>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
@@ -4907,10 +4917,10 @@
         </is>
       </c>
       <c r="K72" s="0">
-        <v>632</v>
+        <v>570</v>
       </c>
       <c r="L72" s="0">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="M72" s="0" t="inlineStr">
         <is>
@@ -4919,7 +4929,7 @@
       </c>
       <c r="N72" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="O72" s="0" t="inlineStr">
@@ -4938,10 +4948,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="0">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C73" s="1">
-        <v>42417.4168634259</v>
+        <v>42094.5418634259</v>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
@@ -4969,10 +4979,10 @@
         </is>
       </c>
       <c r="K73" s="0">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="L73" s="0">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="M73" s="0" t="inlineStr">
         <is>
@@ -4981,7 +4991,7 @@
       </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="O73" s="0" t="inlineStr">
@@ -5000,10 +5010,10 @@
         <v>9</v>
       </c>
       <c r="B74" s="0">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C74" s="1">
-        <v>42424.4689467593</v>
+        <v>42410.4307523148</v>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
@@ -5031,10 +5041,10 @@
         </is>
       </c>
       <c r="K74" s="0">
-        <v>489</v>
+        <v>632</v>
       </c>
       <c r="L74" s="0">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M74" s="0" t="inlineStr">
         <is>
@@ -5043,7 +5053,7 @@
       </c>
       <c r="N74" s="0" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O74" s="0" t="inlineStr">
@@ -5062,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="B75" s="0">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C75" s="1">
-        <v>42445.4689467593</v>
+        <v>42417.4168634259</v>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
@@ -5093,10 +5103,10 @@
         </is>
       </c>
       <c r="K75" s="0">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="L75" s="0">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M75" s="0" t="inlineStr">
         <is>
@@ -5105,7 +5115,7 @@
       </c>
       <c r="N75" s="0" t="inlineStr">
         <is>
-          <t>Purple / Violet</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="O75" s="0" t="inlineStr">
@@ -5124,10 +5134,10 @@
         <v>9</v>
       </c>
       <c r="B76" s="0">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C76" s="1">
-        <v>42452.5731134259</v>
+        <v>42424.4689467593</v>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
@@ -5155,10 +5165,10 @@
         </is>
       </c>
       <c r="K76" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L76" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M76" s="0" t="inlineStr">
         <is>
@@ -5186,10 +5196,10 @@
         <v>9</v>
       </c>
       <c r="B77" s="0">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C77" s="1">
-        <v>42459.4307523148</v>
+        <v>42445.4689467593</v>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
@@ -5217,10 +5227,10 @@
         </is>
       </c>
       <c r="K77" s="0">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="L77" s="0">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M77" s="0" t="inlineStr">
         <is>
@@ -5248,10 +5258,10 @@
         <v>9</v>
       </c>
       <c r="B78" s="0">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C78" s="1">
-        <v>42466.4085300926</v>
+        <v>42452.5731134259</v>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
@@ -5279,10 +5289,10 @@
         </is>
       </c>
       <c r="K78" s="0">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="L78" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M78" s="0" t="inlineStr">
         <is>
@@ -5310,10 +5320,10 @@
         <v>9</v>
       </c>
       <c r="B79" s="0">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C79" s="1">
-        <v>42473.4085300926</v>
+        <v>42459.4307523148</v>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
@@ -5341,10 +5351,10 @@
         </is>
       </c>
       <c r="K79" s="0">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L79" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M79" s="0" t="inlineStr">
         <is>
@@ -5353,7 +5363,7 @@
       </c>
       <c r="N79" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Purple / Violet</t>
         </is>
       </c>
       <c r="O79" s="0" t="inlineStr">
@@ -5372,10 +5382,10 @@
         <v>9</v>
       </c>
       <c r="B80" s="0">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C80" s="1">
-        <v>42487.4043634259</v>
+        <v>42466.4085300926</v>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
@@ -5403,10 +5413,10 @@
         </is>
       </c>
       <c r="K80" s="0">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L80" s="0">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M80" s="0" t="inlineStr">
         <is>
@@ -5434,10 +5444,10 @@
         <v>9</v>
       </c>
       <c r="B81" s="0">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C81" s="1">
-        <v>42629.4265856482</v>
+        <v>42473.4085300926</v>
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
@@ -5446,7 +5456,7 @@
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>Late fall</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
@@ -5465,10 +5475,10 @@
         </is>
       </c>
       <c r="K81" s="0">
-        <v>334</v>
+        <v>473</v>
       </c>
       <c r="L81" s="0">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M81" s="0" t="inlineStr">
         <is>
@@ -5477,7 +5487,7 @@
       </c>
       <c r="N81" s="0" t="inlineStr">
         <is>
-          <t>Purple / Violet</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O81" s="0" t="inlineStr">
@@ -5496,10 +5506,10 @@
         <v>9</v>
       </c>
       <c r="B82" s="0">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C82" s="1">
-        <v>42642.6043634259</v>
+        <v>42487.4043634259</v>
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
@@ -5508,7 +5518,7 @@
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>Late fall</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
@@ -5527,10 +5537,10 @@
         </is>
       </c>
       <c r="K82" s="0">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="L82" s="0">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M82" s="0" t="inlineStr">
         <is>
@@ -5539,7 +5549,7 @@
       </c>
       <c r="N82" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="O82" s="0" t="inlineStr">
@@ -5558,10 +5568,10 @@
         <v>9</v>
       </c>
       <c r="B83" s="0">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C83" s="1">
-        <v>42655.6036689815</v>
+        <v>42629.4265856482</v>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
@@ -5589,7 +5599,7 @@
         </is>
       </c>
       <c r="K83" s="0">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="L83" s="0">
         <v>45</v>
@@ -5601,7 +5611,7 @@
       </c>
       <c r="N83" s="0" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Purple / Violet</t>
         </is>
       </c>
       <c r="O83" s="0" t="inlineStr">
@@ -5620,10 +5630,10 @@
         <v>9</v>
       </c>
       <c r="B84" s="0">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C84" s="1">
-        <v>42662.6557523148</v>
+        <v>42642.6043634259</v>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
@@ -5651,7 +5661,7 @@
         </is>
       </c>
       <c r="K84" s="0">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="L84" s="0">
         <v>45</v>
@@ -5663,7 +5673,7 @@
       </c>
       <c r="N84" s="0" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O84" s="0" t="inlineStr">
@@ -5682,10 +5692,10 @@
         <v>9</v>
       </c>
       <c r="B85" s="0">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C85" s="1">
-        <v>42683.6460300926</v>
+        <v>42655.6036689815</v>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
@@ -5713,7 +5723,7 @@
         </is>
       </c>
       <c r="K85" s="0">
-        <v>969</v>
+        <v>304</v>
       </c>
       <c r="L85" s="0">
         <v>45</v>
@@ -5725,7 +5735,7 @@
       </c>
       <c r="N85" s="0" t="inlineStr">
         <is>
-          <t>Purple / Violet</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="O85" s="0" t="inlineStr">
@@ -5744,10 +5754,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1">
-        <v>42704.6981134259</v>
+        <v>42662.6557523148</v>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
@@ -5775,7 +5785,7 @@
         </is>
       </c>
       <c r="K86" s="0">
-        <v>1126</v>
+        <v>152</v>
       </c>
       <c r="L86" s="0">
         <v>45</v>
@@ -5787,7 +5797,7 @@
       </c>
       <c r="N86" s="0" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="O86" s="0" t="inlineStr">
@@ -5806,10 +5816,10 @@
         <v>9</v>
       </c>
       <c r="B87" s="0">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C87" s="1">
-        <v>42802.3821412037</v>
+        <v>42683.6460300926</v>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
@@ -5818,7 +5828,7 @@
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Late fall</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
@@ -5837,7 +5847,7 @@
         </is>
       </c>
       <c r="K87" s="0">
-        <v>987</v>
+        <v>969</v>
       </c>
       <c r="L87" s="0">
         <v>45</v>
@@ -5849,7 +5859,7 @@
       </c>
       <c r="N87" s="0" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Purple / Violet</t>
         </is>
       </c>
       <c r="O87" s="0" t="inlineStr">
@@ -5868,10 +5878,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="0">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C88" s="1">
-        <v>42809.3751967593</v>
+        <v>42704.6981134259</v>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
@@ -5880,7 +5890,7 @@
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>Late fall</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
@@ -5899,7 +5909,7 @@
         </is>
       </c>
       <c r="K88" s="0">
-        <v>950</v>
+        <v>1126</v>
       </c>
       <c r="L88" s="0">
         <v>45</v>
@@ -5911,7 +5921,7 @@
       </c>
       <c r="N88" s="0" t="inlineStr">
         <is>
-          <t>Purple / Violet</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="O88" s="0" t="inlineStr">
@@ -5930,10 +5940,10 @@
         <v>9</v>
       </c>
       <c r="B89" s="0">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C89" s="1">
-        <v>42816.3751967593</v>
+        <v>42802.3821412037</v>
       </c>
       <c r="D89" s="0" t="inlineStr">
         <is>
@@ -5961,7 +5971,7 @@
         </is>
       </c>
       <c r="K89" s="0">
-        <v>906</v>
+        <v>987</v>
       </c>
       <c r="L89" s="0">
         <v>45</v>
@@ -5973,7 +5983,7 @@
       </c>
       <c r="N89" s="0" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="O89" s="0" t="inlineStr">
@@ -5992,58 +6002,182 @@
         <v>9</v>
       </c>
       <c r="B90" s="0">
+        <v>293</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42809.3751967593</v>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>Hatchery</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>Not yet assigned</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>Knights Landing release site</t>
+        </is>
+      </c>
+      <c r="K90" s="0">
+        <v>950</v>
+      </c>
+      <c r="L90" s="0">
+        <v>45</v>
+      </c>
+      <c r="M90" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="N90" s="0" t="inlineStr">
+        <is>
+          <t>Purple / Violet</t>
+        </is>
+      </c>
+      <c r="O90" s="0" t="inlineStr">
+        <is>
+          <t>Nose</t>
+        </is>
+      </c>
+      <c r="P90" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0">
+        <v>9</v>
+      </c>
+      <c r="B91" s="0">
+        <v>294</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42816.3751967593</v>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>Hatchery</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>Not yet assigned</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>Knights Landing release site</t>
+        </is>
+      </c>
+      <c r="K91" s="0">
+        <v>906</v>
+      </c>
+      <c r="L91" s="0">
+        <v>45</v>
+      </c>
+      <c r="M91" s="0" t="inlineStr">
+        <is>
+          <t>Elastomer</t>
+        </is>
+      </c>
+      <c r="N91" s="0" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="O91" s="0" t="inlineStr">
+        <is>
+          <t>Nose</t>
+        </is>
+      </c>
+      <c r="P91" s="0" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0">
+        <v>9</v>
+      </c>
+      <c r="B92" s="0">
         <v>574</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C92" s="1">
         <v>40219.6672453704</v>
       </c>
-      <c r="D90" s="0" t="inlineStr">
-        <is>
-          <t>Chinook salmon</t>
-        </is>
-      </c>
-      <c r="E90" s="0" t="inlineStr">
-        <is>
-          <t>Not recorded</t>
-        </is>
-      </c>
-      <c r="G90" s="0" t="inlineStr">
-        <is>
-          <t>Not recorded</t>
-        </is>
-      </c>
-      <c r="H90" s="0" t="inlineStr">
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>Chinook salmon</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>Not recorded</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
         <is>
           <t>Not yet assigned</t>
         </is>
       </c>
-      <c r="I90" s="0" t="inlineStr">
-        <is>
-          <t>Knights Landing release site</t>
-        </is>
-      </c>
-      <c r="K90" s="0">
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>Knights Landing release site</t>
+        </is>
+      </c>
+      <c r="K92" s="0">
         <v>399</v>
       </c>
-      <c r="L90" s="0">
+      <c r="L92" s="0">
         <v>7</v>
       </c>
-      <c r="M90" s="0" t="inlineStr">
-        <is>
-          <t>Pigment / dye</t>
-        </is>
-      </c>
-      <c r="N90" s="0" t="inlineStr">
+      <c r="M92" s="0" t="inlineStr">
+        <is>
+          <t>Pigment / dye</t>
+        </is>
+      </c>
+      <c r="N92" s="0" t="inlineStr">
         <is>
           <t>Brown</t>
         </is>
       </c>
-      <c r="O90" s="0" t="inlineStr">
-        <is>
-          <t>Whole body</t>
-        </is>
-      </c>
-      <c r="P90" s="0" t="inlineStr">
+      <c r="O92" s="0" t="inlineStr">
+        <is>
+          <t>Whole body</t>
+        </is>
+      </c>
+      <c r="P92" s="0" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
